--- a/data/output/FV2504_FV2410/UTILMD/55011.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55011.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="207">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="207">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -764,6 +764,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U84" totalsRowShown="0">
+  <autoFilter ref="A1:U84"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,7 +1083,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4896,5 +4929,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55011.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="289">
   <si>
     <t>#</t>
   </si>
@@ -4543,44 +4543,42 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M64" s="5" t="s">
+      <c r="K64" s="2"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V64" s="5"/>
+      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4718,9 +4716,7 @@
         <v>180</v>
       </c>
       <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="5" t="s">
         <v>34</v>
       </c>
@@ -4747,44 +4743,42 @@
       <c r="V67" s="5"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M68" s="5" t="s">
+      <c r="K68" s="2"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V68" s="5"/>
+      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55011.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55011.xlsx
@@ -994,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1017,6 +1017,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1025,6 +1028,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1467,7 +1473,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1831,7 +1837,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1977,7 +1983,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2179,7 +2185,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2487,7 +2493,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2687,7 +2693,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3061,7 +3067,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3369,7 +3375,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3545,52 +3551,52 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="2"/>
       <c r="L43" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V43" s="5"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
@@ -3775,26 +3781,26 @@
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M47" s="5"/>
@@ -3812,33 +3818,33 @@
       <c r="A48" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M48" s="5"/>
@@ -3856,33 +3862,33 @@
       <c r="A49" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M49" s="5"/>
@@ -3900,31 +3906,31 @@
       <c r="A50" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M50" s="5"/>
@@ -3942,31 +3948,31 @@
       <c r="A51" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M51" s="5"/>
@@ -3994,29 +4000,29 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11" t="s">
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11" t="s">
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="V52" s="11"/>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
@@ -4032,35 +4038,35 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11" t="s">
+      <c r="S53" s="13"/>
+      <c r="T53" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U53" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="V53" s="11"/>
+      <c r="U53" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -4076,35 +4082,35 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="V54" s="11"/>
+      <c r="U54" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4120,54 +4126,54 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11" t="s">
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="6" t="s">
         <v>187</v>
       </c>
@@ -4177,22 +4183,22 @@
       <c r="L56" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="O56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P56" s="5"/>
+      <c r="P56" s="2"/>
       <c r="Q56" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
       <c r="U56" s="6" t="s">
         <v>186</v>
       </c>
@@ -4387,22 +4393,22 @@
       <c r="B60" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8" t="s">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="L60" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M60" s="5"/>
@@ -4420,27 +4426,27 @@
       <c r="A61" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9" t="s">
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M61" s="5"/>
@@ -4458,33 +4464,33 @@
       <c r="A62" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="J62" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M62" s="5"/>
@@ -4502,33 +4508,33 @@
       <c r="A63" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="L63" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M63" s="5"/>
@@ -4563,7 +4569,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4763,7 +4769,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -4951,22 +4957,22 @@
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K72" s="8" t="s">
+      <c r="K72" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="L72" s="9" t="s">
+      <c r="L72" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M72" s="5"/>
@@ -4984,27 +4990,27 @@
       <c r="A73" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="9" t="s">
+      <c r="K73" s="9"/>
+      <c r="L73" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M73" s="5"/>
@@ -5022,33 +5028,33 @@
       <c r="A74" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8" t="s">
+      <c r="H74" s="9"/>
+      <c r="I74" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="9" t="s">
+      <c r="J74" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M74" s="5"/>
@@ -5069,24 +5075,24 @@
       <c r="B75" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9" t="s">
+      <c r="K75" s="9"/>
+      <c r="L75" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M75" s="5"/>
@@ -5104,33 +5110,33 @@
       <c r="A76" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8" t="s">
+      <c r="H76" s="9"/>
+      <c r="I76" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9" t="s">
+      <c r="J76" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M76" s="5"/>
@@ -5148,33 +5154,33 @@
       <c r="A77" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M77" s="5"/>
@@ -5195,20 +5201,20 @@
       <c r="B78" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="9" t="s">
+      <c r="K78" s="9"/>
+      <c r="L78" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M78" s="5"/>
@@ -5226,27 +5232,27 @@
       <c r="A79" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M79" s="5"/>
@@ -5264,33 +5270,33 @@
       <c r="A80" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8" t="s">
+      <c r="H80" s="9"/>
+      <c r="I80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="J80" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M80" s="5"/>
@@ -5308,33 +5314,33 @@
       <c r="A81" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="J81" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>198</v>
       </c>
       <c r="M81" s="5"/>
@@ -5349,48 +5355,48 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="5"/>
+      <c r="K82" s="2"/>
       <c r="L82" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5" t="s">
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P82" s="5"/>
+      <c r="P82" s="2"/>
       <c r="Q82" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="V82" s="5"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
